--- a/src/test/resources/workbook/write/dataScheduleOther.xlsx
+++ b/src/test/resources/workbook/write/dataScheduleOther.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="集体经济信息（年终）监测" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>${fileName}</t>
   </si>
   <si>
-    <t>汇总单位:${bankName}                          填报日期:${dataIssue}                              计量单位：个                        导出日期：${operationTime}</t>
+    <t>汇总单位:${bankName}                          填报日期:${dataIssue:12}                              计量单位：个                        导出日期：${operationTime}</t>
   </si>
   <si>
     <t>汇入单位名称</t>
@@ -62,7 +62,7 @@
     <t>#{overCnt}</t>
   </si>
   <si>
-    <t>#{dataCnt}</t>
+    <t>#{dataCnt:0}条</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="4"/>

--- a/src/test/resources/workbook/write/dataScheduleOther.xlsx
+++ b/src/test/resources/workbook/write/dataScheduleOther.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="集体经济信息（年终）监测" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>${fileName}</t>
   </si>
@@ -50,6 +50,9 @@
     <t>已填报数据(条)</t>
   </si>
   <si>
+    <t>字典测试</t>
+  </si>
+  <si>
     <t>#{bankName}</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>#{dataCnt:0}条</t>
+  </si>
+  <si>
+    <t>#{regionStatus}</t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="31.625" style="3" customWidth="1"/>
     <col min="3" max="5" width="31.625" style="4" customWidth="1"/>
@@ -1113,7 +1119,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1129,22 +1135,28 @@
       <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:5">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">

--- a/src/test/resources/workbook/write/dataScheduleOther.xlsx
+++ b/src/test/resources/workbook/write/dataScheduleOther.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="集体经济信息（年终）监测" sheetId="1" r:id="rId1"/>
+    <sheet name="集体经济信息（年终）监测 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>${fileName}</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>#{regionStatus}</t>
+  </si>
+  <si>
+    <t>跟随字符</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="5"/>
@@ -1231,4 +1235,156 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="2" width="31.625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="31.625" style="4" customWidth="1"/>
+    <col min="6" max="16383" width="31.625" style="3" customWidth="1"/>
+    <col min="16384" max="16384" width="31.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/workbook/write/dataScheduleOther.xlsx
+++ b/src/test/resources/workbook/write/dataScheduleOther.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="集体经济信息（年终）监测" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>${fileName}</t>
   </si>
@@ -60,16 +60,19 @@
     <t>#{shouldCnt}</t>
   </si>
   <si>
+    <t>#{notCnt:0}</t>
+  </si>
+  <si>
+    <t>#{overCnt}</t>
+  </si>
+  <si>
+    <t>#{dataCnt:0}条</t>
+  </si>
+  <si>
+    <t>#{regionStatus}</t>
+  </si>
+  <si>
     <t>#{notCnt}</t>
-  </si>
-  <si>
-    <t>#{overCnt}</t>
-  </si>
-  <si>
-    <t>#{dataCnt:0}条</t>
-  </si>
-  <si>
-    <t>#{regionStatus}</t>
   </si>
   <si>
     <t>跟随字符</t>
@@ -1093,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="5"/>
@@ -1242,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="6"/>
@@ -1300,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>11</v>
@@ -1312,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
